--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71509.46940734889</v>
+        <v>-73947.94250709574</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.6798317192472</v>
+        <v>172.4456245554202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>262.089260711112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>66.62774187000272</v>
+        <v>81.77200357366308</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>91.07674376978223</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.41943806107204</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>88.58584547962735</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>101.4017460807788</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>302.0443107340017</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>150.9601371840612</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>162.4154839174013</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>54.45803047044437</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819362</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>27.3154749818654</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>109.040488224226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>215.2549371307836</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.974488840436938</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>106.1949878935057</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703258</v>
       </c>
       <c r="H28" t="n">
-        <v>55.52079624060205</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>231.3119700802614</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2950.578526155346</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2597.809870885231</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.344112624151</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1834.204780648339</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.8128657958225</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="C4" t="n">
-        <v>133.8128657958225</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="D4" t="n">
-        <v>133.8128657958225</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="E4" t="n">
-        <v>133.8128657958225</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="F4" t="n">
-        <v>133.8128657958225</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="G4" t="n">
-        <v>133.8128657958225</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="H4" t="n">
-        <v>133.8128657958225</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452395</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452395</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V4" t="n">
-        <v>354.6054449393527</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W4" t="n">
-        <v>354.6054449393527</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="X4" t="n">
-        <v>354.6054449393527</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.8128657958225</v>
+        <v>149.1100998399239</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1384.829779622644</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.1280466398576</v>
+        <v>155.992768431807</v>
       </c>
       <c r="C7" t="n">
-        <v>382.1280466398576</v>
+        <v>155.992768431807</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W7" t="n">
-        <v>563.7765114700973</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="X7" t="n">
-        <v>563.7765114700973</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.7765114700973</v>
+        <v>155.992768431807</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473096</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490654</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>371.6073797998619</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,13 +4814,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4884,10 +4884,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -4960,52 +4960,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318774</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338601</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.09676419033</v>
+        <v>376.7853475753371</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1138.603793935963</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.8620388433919</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>408.925855915485</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2443.925817935984</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.070983590888</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2041.469518613829</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U19" t="n">
-        <v>1752.394291958027</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V19" t="n">
-        <v>1497.70980375214</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W19" t="n">
-        <v>1208.292633715179</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X19" t="n">
-        <v>980.3030828171618</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.5105036736317</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,13 +5771,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2441.938347377797</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2259.083513032701</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.482048055643</v>
+        <v>2272.649715293768</v>
       </c>
       <c r="U22" t="n">
-        <v>1750.40682139984</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V22" t="n">
-        <v>1495.722333193953</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W22" t="n">
-        <v>1206.305163156993</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6248,28 +6248,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327625</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048556</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925198</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101267</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122163</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G28" t="n">
-        <v>149.8982754122163</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947397</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.60190374151</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.18473370455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806532</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630022</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7120,10 +7120,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127.0540099442333</v>
+        <v>210.2882171080604</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.9013229961964</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.2691783702294</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.36835372228757</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.150513196504619</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>61.40075786968475</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>111.2104624337825</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194309</v>
       </c>
       <c r="H28" t="n">
-        <v>84.77391660562185</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>55.21102825632957</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794696</v>
+        <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
         <v>322858.6398760024</v>
@@ -26326,7 +26326,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26335,16 +26335,16 @@
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="K2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.202397277</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>51041.86039138738</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,7 +26430,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26439,19 +26439,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186746</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1189126.780900904</v>
+        <v>-1189313.174289443</v>
       </c>
       <c r="C6" t="n">
-        <v>126886.0232802678</v>
+        <v>126886.0232802674</v>
       </c>
       <c r="D6" t="n">
-        <v>126886.0232802676</v>
+        <v>126886.0232802674</v>
       </c>
       <c r="E6" t="n">
-        <v>-118503.0477971273</v>
+        <v>-118537.7857225631</v>
       </c>
       <c r="F6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="G6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847921</v>
       </c>
       <c r="H6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="I6" t="n">
-        <v>206909.414010228</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="J6" t="n">
-        <v>-10621.78838704959</v>
+        <v>-10656.52631248471</v>
       </c>
       <c r="K6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847919</v>
       </c>
       <c r="L6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847921</v>
       </c>
       <c r="M6" t="n">
-        <v>121854.386074716</v>
+        <v>121819.6481492803</v>
       </c>
       <c r="N6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="O6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="P6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847922</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>65.66299775902286</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>117.8297776822727</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>29.72467853983537</v>
+        <v>14.58041683617503</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>274.1961480012253</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.8185005949815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>60.029627538585</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>185.1212522558122</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>108.8774149194517</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>235.2778014719924</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>3.610324341626892</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>232.0649678661466</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200318</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899055</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366985</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998965</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
